--- a/document/spec/AtrExp_Information.xlsx
+++ b/document/spec/AtrExp_Information.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="705" windowWidth="2490" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="705" windowWidth="2490" windowHeight="7380" tabRatio="494" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Structures" sheetId="6" r:id="rId1"/>
-    <sheet name="Screens" sheetId="4" r:id="rId2"/>
-    <sheet name="Features" sheetId="1" r:id="rId3"/>
+    <sheet name="Screens" sheetId="4" r:id="rId1"/>
+    <sheet name="Features" sheetId="8" r:id="rId2"/>
+    <sheet name="Data Structures" sheetId="6" r:id="rId3"/>
+    <sheet name="Old" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="361">
   <si>
     <t>Category</t>
   </si>
@@ -416,37 +417,15 @@
     <t>Country/Industry</t>
   </si>
   <si>
-    <t>Atradius Experience UI Screen</t>
-  </si>
-  <si>
     <t>Page No</t>
   </si>
   <si>
-    <t>UI Pages</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
     <t>Login Page</t>
   </si>
   <si>
     <t>User Authentication and Authorization</t>
   </si>
   <si>
-    <t>Default Page(Layout)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-A default page with following layout 
-1.Header Side Bar
-2.Navbar
-3.Mini Dashboard
-4.SideBar
-5.Centr Conter ( place holder)
-</t>
-  </si>
-  <si>
     <t>Header Side Bar</t>
   </si>
   <si>
@@ -457,13 +436,6 @@
   </si>
   <si>
     <t>User Mangement Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Create User
-2.Edit User
-3.Create Team
-4.Assign user to team
-</t>
   </si>
   <si>
     <t>Activities Page</t>
@@ -504,9 +476,6 @@
   </si>
   <si>
     <t>Big Prospect Page</t>
-  </si>
-  <si>
-    <t>Make Offer Page</t>
   </si>
   <si>
     <t xml:space="preserve">1. View Selected Customer information
@@ -531,9 +500,6 @@
     <t xml:space="preserve">Admin page </t>
   </si>
   <si>
-    <t>Separate tab in this page will have Round system dashboard.Admin can set duration for each round, invalidate other user session ,calculation etc..</t>
-  </si>
-  <si>
     <t>Record</t>
   </si>
   <si>
@@ -865,13 +831,349 @@
   </si>
   <si>
     <t>Logic emanuel has to provide</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scope </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.Opens desktop window to select an image to upload
+2. Change Slogan
+</t>
+  </si>
+  <si>
+    <t>Pop Up Window - Upload Team Picture  
+and change Slogan</t>
+  </si>
+  <si>
+    <t>Pop Up Window - Make Offer Page</t>
+  </si>
+  <si>
+    <t>UI Screens</t>
+  </si>
+  <si>
+    <t>1. To set the risk srategy  at team level</t>
+  </si>
+  <si>
+    <t>User Login</t>
+  </si>
+  <si>
+    <t>Round System Dashboard</t>
+  </si>
+  <si>
+    <t>Teams Page</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Atradius Experience UI Screens</t>
+  </si>
+  <si>
+    <t>View Customer Info
+Search Customer
+Sorting Customer
+Filter Customer
+Upload Customer</t>
+  </si>
+  <si>
+    <t>1. Separate tab in this page will have Round system dashboard.
+2.Admin can set duration for each round, invalidate other user session ,calculation etc..</t>
+  </si>
+  <si>
+    <t>1.Create User
+2.Edit User
+3.Create Team
+4.Assign user to team</t>
+  </si>
+  <si>
+    <t>Admin should View Teams and associated user information</t>
+  </si>
+  <si>
+    <t>A default page with following layout 
+1.Header Side Bar
+2.Navbar
+3.Mini Dashboard
+4.SideBar
+5.Centr Content ( A place holder for other page)</t>
+  </si>
+  <si>
+    <t>Sub Task</t>
+  </si>
+  <si>
+    <t>Create Json file format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define user model </t>
+  </si>
+  <si>
+    <t>Infosys will provide sample json file based on defined data model</t>
+  </si>
+  <si>
+    <t>Infosys</t>
+  </si>
+  <si>
+    <t>User model capable of following 
+1. User belongs to Team
+2. User role whether admin or normal user</t>
+  </si>
+  <si>
+    <t>1. Manual task of creating the list of teams and associated user id and password, 
+2. Representing unit from array of units and contact email address. 
+3. User duplication to be handled manually</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. To fulfill the concept of team and user list belongs to that team.
+2. At any given point in time user belongs to one team can't be in other team.
+</t>
+  </si>
+  <si>
+    <t>Default Page</t>
+  </si>
+  <si>
+    <t>Default Page( After Login )</t>
+  </si>
+  <si>
+    <t>Default Page(after login)</t>
+  </si>
+  <si>
+    <t>1. User Authentication and Authorization
+2. After Successful login user navigate to default page.
+3. Read User Language preferene at cookies level</t>
+  </si>
+  <si>
+    <t>Default page with following layout 
+1.Header Side Bar
+2.Navbar
+3.Mini Dashboard
+4.SideBar
+5.Center Content ( A place holder for other page)</t>
+  </si>
+  <si>
+    <t>1. Ability to view other pages in center content section</t>
+  </si>
+  <si>
+    <t>Show other pages content to center content section</t>
+  </si>
+  <si>
+    <t>3. Logged in user should be able to change the team slogan.</t>
+  </si>
+  <si>
+    <t>Rank page design</t>
+  </si>
+  <si>
+    <t>Logic for Calculate team ranking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. View Settings Content
+</t>
+  </si>
+  <si>
+    <t>2 .Logged in user should be able to change the password.</t>
+  </si>
+  <si>
+    <t>Setting page design</t>
+  </si>
+  <si>
+    <t>2. Calculate Rank</t>
+  </si>
+  <si>
+    <t>1. View Ranking content</t>
+  </si>
+  <si>
+    <t>Calculate Team Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Html page design </t>
+  </si>
+  <si>
+    <t>Html page design</t>
+  </si>
+  <si>
+    <t>Emanuel/Jonathan</t>
+  </si>
+  <si>
+    <t>Define model</t>
+  </si>
+  <si>
+    <t>Nav Bar</t>
+  </si>
+  <si>
+    <t>2.Activity list with icon notification on outstanding activities</t>
+  </si>
+  <si>
+    <t>1.Language Selection</t>
+  </si>
+  <si>
+    <t>3.Logout</t>
+  </si>
+  <si>
+    <t>Create new risk strategy</t>
+  </si>
+  <si>
+    <t>Modify risk strategy</t>
+  </si>
+  <si>
+    <t>Delete risk strategy</t>
+  </si>
+  <si>
+    <t>Internalization</t>
+  </si>
+  <si>
+    <t>Store User Language preferene at cookies level
+Screen adopt to user language selection</t>
+  </si>
+  <si>
+    <t>Ability to view Dashboard</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Ability to view Company Page</t>
+  </si>
+  <si>
+    <t>Small Prospect</t>
+  </si>
+  <si>
+    <t>Big Prospect</t>
+  </si>
+  <si>
+    <t>Html page design for small prospect</t>
+  </si>
+  <si>
+    <t>Html page design for big prospect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View Outstanding offers
+</t>
+  </si>
+  <si>
+    <t>Outstanding Offer</t>
+  </si>
+  <si>
+    <t>Html page design for outstanding offer</t>
+  </si>
+  <si>
+    <t>Tab ( Small Prospect Page )
+1. Search Prospect
+2. Filter Prospect
+3. Make offer
+4.View offer
+5.View Small Prospect</t>
+  </si>
+  <si>
+    <t>Tab ( Big Prospect Page )
+1. Search Prospect
+2. Filter Prospect
+3. Make offer
+4.View offer
+5.View Big Prospect</t>
+  </si>
+  <si>
+    <t>html design</t>
+  </si>
+  <si>
+    <t>Small prospects data</t>
+  </si>
+  <si>
+    <t>Provide data in Json format</t>
+  </si>
+  <si>
+    <t>Big prospects data</t>
+  </si>
+  <si>
+    <t>Big Prospect - Make Offer</t>
+  </si>
+  <si>
+    <t>Small Proscpet - Make Offer</t>
+  </si>
+  <si>
+    <t>Small Prospect - Make Offer</t>
+  </si>
+  <si>
+    <t>Oustanding offer</t>
+  </si>
+  <si>
+    <t>Admin  Page</t>
+  </si>
+  <si>
+    <t>Define model for round system dashboard</t>
+  </si>
+  <si>
+    <t>html design for Teams page</t>
+  </si>
+  <si>
+    <t>html design for Round system dashboard</t>
+  </si>
+  <si>
+    <t>Teams Page
+Admin should View Teams and associated user information</t>
+  </si>
+  <si>
+    <t>Define model for Teams page</t>
+  </si>
+  <si>
+    <t>Challenge  Page
+Admin can set challenge at every round of a game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round System Dashboard
+1. Separate tab in this page will have Round system dashboard.
+2.Admin can set duration for each round, invalidate other user session ,calculation etc..
+3. View Round information
+</t>
+  </si>
+  <si>
+    <t>Admin - Round System</t>
+  </si>
+  <si>
+    <t>Admin - Teams Page</t>
+  </si>
+  <si>
+    <t>Admin - Challenge  Page</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>country specific participation</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.Opens desktop window to select an image to upload</t>
+  </si>
+  <si>
+    <t>Html design for upload screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logic for Risk strategy
+1. 5 types of risk 
+2. Buyer Risk - static. Buyer rating value (0 to 100, with 100 being best rating)
+3. Expected loss Ratio - for an industry and segement value at buyer level
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -892,13 +1194,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -955,8 +1250,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -996,6 +1304,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,11 +1434,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1156,94 +1474,197 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="33">
     <dxf>
       <font>
         <b val="0"/>
@@ -1588,6 +2009,430 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="1" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1598,6 +2443,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="1" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1650,18 +2496,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:C23" totalsRowShown="0" dataDxfId="16">
-  <autoFilter ref="A2:C23"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Page No" dataDxfId="15"/>
-    <tableColumn id="2" name="UI Pages" dataDxfId="14"/>
-    <tableColumn id="3" name="Action" dataDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:D27" totalsRowShown="0" dataDxfId="32">
+  <autoFilter ref="A2:D27">
+    <filterColumn colId="3"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Page No" dataDxfId="31"/>
+    <tableColumn id="2" name="UI Screens" dataDxfId="30"/>
+    <tableColumn id="3" name="Info" dataDxfId="29"/>
+    <tableColumn id="6" name="Scope " dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:J62" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+  <autoFilter ref="A1:J62">
+    <filterColumn colId="1"/>
+    <filterColumn colId="2"/>
+    <filterColumn colId="9"/>
+  </autoFilter>
+  <tableColumns count="10">
+    <tableColumn id="1" name="No" dataDxfId="22"/>
+    <tableColumn id="8" name="Screen" dataDxfId="21"/>
+    <tableColumn id="10" name="Feature" dataDxfId="20"/>
+    <tableColumn id="2" name="Category" dataDxfId="19"/>
+    <tableColumn id="3" name="Sub Task" dataDxfId="18"/>
+    <tableColumn id="4" name="Details" dataDxfId="17"/>
+    <tableColumn id="6" name="Owner" dataDxfId="16"/>
+    <tableColumn id="5" name="Status" dataDxfId="15"/>
+    <tableColumn id="7" name="Technical details" dataDxfId="14"/>
+    <tableColumn id="9" name="Date" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H76" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A1:H76">
     <filterColumn colId="7"/>
@@ -1965,1492 +2837,1793 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="4.140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="90.85546875" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="13.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" ht="18">
-      <c r="A1" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" outlineLevel="1">
-      <c r="F3" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" outlineLevel="1">
-      <c r="F4" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" outlineLevel="1">
-      <c r="F5" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" outlineLevel="1">
-      <c r="F6" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" outlineLevel="1">
-      <c r="F7" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" outlineLevel="1">
-      <c r="F8" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" outlineLevel="1">
-      <c r="F9" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="12" customHeight="1" outlineLevel="1">
-      <c r="F10" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="12" customHeight="1" outlineLevel="1">
-      <c r="F11" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" outlineLevel="1">
-      <c r="F12" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" outlineLevel="1">
-      <c r="F13" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" outlineLevel="1">
-      <c r="F14" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" outlineLevel="1">
-      <c r="F15" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" outlineLevel="1">
-      <c r="F16" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" outlineLevel="1">
-      <c r="F17" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" outlineLevel="1">
-      <c r="F18" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" outlineLevel="1">
-      <c r="F19" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" outlineLevel="1">
-      <c r="F20" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" outlineLevel="1">
-      <c r="F21" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" outlineLevel="1">
-      <c r="B22" s="17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" outlineLevel="1">
-      <c r="F23" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" outlineLevel="1">
-      <c r="F24" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="12" customHeight="1" outlineLevel="1">
-      <c r="F25" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="12" customHeight="1" outlineLevel="1">
-      <c r="F26" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" outlineLevel="1">
-      <c r="F27" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" outlineLevel="1">
-      <c r="F28" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" outlineLevel="1">
-      <c r="F29" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" outlineLevel="1">
-      <c r="F30" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" outlineLevel="1">
-      <c r="F31" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" outlineLevel="1">
-      <c r="F32" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" outlineLevel="1">
-      <c r="F33" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" outlineLevel="1">
-      <c r="F34" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" outlineLevel="1">
-      <c r="F35" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" outlineLevel="1">
-      <c r="F36" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" outlineLevel="1"/>
-    <row r="38" spans="1:8" outlineLevel="1">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" outlineLevel="2"/>
-    <row r="40" spans="1:8" outlineLevel="2">
-      <c r="F40" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" outlineLevel="2">
-      <c r="F41" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" outlineLevel="2">
-      <c r="F42" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" outlineLevel="2"/>
-    <row r="44" spans="1:8" customFormat="1" outlineLevel="1">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-    </row>
-    <row r="45" spans="1:8" customFormat="1" outlineLevel="2">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" customFormat="1" outlineLevel="2">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" outlineLevel="2">
-      <c r="F47" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" outlineLevel="2"/>
-    <row r="49" spans="1:8" outlineLevel="1">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-    </row>
-    <row r="50" spans="1:8" outlineLevel="2">
-      <c r="F50" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" outlineLevel="2">
-      <c r="F51" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" outlineLevel="2">
-      <c r="F52" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" outlineLevel="2">
-      <c r="F53" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" outlineLevel="2">
-      <c r="F54" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" outlineLevel="2"/>
-    <row r="56" spans="1:8" outlineLevel="1">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-    </row>
-    <row r="57" spans="1:8" outlineLevel="2">
-      <c r="F57" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" outlineLevel="2">
-      <c r="F58" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" outlineLevel="2">
-      <c r="F59" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H59" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" outlineLevel="2">
-      <c r="F60" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" outlineLevel="2">
-      <c r="F61" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" outlineLevel="2"/>
-    <row r="63" spans="1:8" outlineLevel="1">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" outlineLevel="2">
-      <c r="F64" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="G64" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" outlineLevel="2">
-      <c r="F65" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="G65" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" outlineLevel="2">
-      <c r="F66" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" outlineLevel="2">
-      <c r="F67" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="G67" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="H67" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" outlineLevel="2">
-      <c r="F68" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G68" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="H68" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" outlineLevel="2">
-      <c r="F69" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="G69" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" outlineLevel="2">
-      <c r="F70" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="G70" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" outlineLevel="2"/>
-    <row r="72" spans="1:8" outlineLevel="2">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" outlineLevel="3">
-      <c r="F73" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="G73" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" outlineLevel="3">
-      <c r="F74" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" outlineLevel="3">
-      <c r="F75" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="G75" s="17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" outlineLevel="3">
-      <c r="F76" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="G76" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H76" s="17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" outlineLevel="2"/>
-    <row r="78" spans="1:8" outlineLevel="2">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" outlineLevel="3">
-      <c r="F79" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G79" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H79" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" outlineLevel="3">
-      <c r="F80" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="G80" s="17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" outlineLevel="3">
-      <c r="F81" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G81" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="H81" s="17" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" outlineLevel="3">
-      <c r="F82" s="17" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="44"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="76.5">
+      <c r="A4" s="19">
+        <v>2</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="19"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="46"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="49"/>
+      <c r="B6" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="19">
         <v>3</v>
       </c>
-      <c r="G82" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="H82" s="17" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" outlineLevel="3">
-      <c r="A83" s="18"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-    </row>
-    <row r="84" spans="1:8" outlineLevel="5">
-      <c r="F84" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="G84" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" outlineLevel="5">
-      <c r="F85" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="G85" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="H85" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" outlineLevel="5">
-      <c r="F86" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="G86" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H86" s="17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" outlineLevel="5">
-      <c r="F87" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G87" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="H87" s="17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" outlineLevel="5"/>
-    <row r="89" spans="1:8" outlineLevel="1">
-      <c r="A89" s="18"/>
-      <c r="B89" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="20"/>
-    </row>
-    <row r="90" spans="1:8" outlineLevel="2">
-      <c r="F90" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G90" s="17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" outlineLevel="2">
-      <c r="F91" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="G91" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="H91" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" outlineLevel="2">
-      <c r="F92" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="G92" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="H92" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" outlineLevel="2">
-      <c r="F93" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="G93" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="H93" s="17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" outlineLevel="2"/>
-    <row r="95" spans="1:8" outlineLevel="1">
-      <c r="A95" s="18"/>
-      <c r="B95" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="20" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" outlineLevel="2">
-      <c r="F96" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G96" s="17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" outlineLevel="2">
-      <c r="F97" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="G97" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" outlineLevel="2">
-      <c r="F98" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="G98" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" outlineLevel="2">
-      <c r="F99" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="G99" s="17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" outlineLevel="2">
-      <c r="F100" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="G100" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="H100" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" outlineLevel="1"/>
-    <row r="102" spans="1:8">
-      <c r="A102" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-    </row>
-    <row r="103" spans="1:8" outlineLevel="1">
-      <c r="A103" s="18"/>
-      <c r="B103" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-    </row>
-    <row r="104" spans="1:8" outlineLevel="2">
-      <c r="F104" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="G104" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" outlineLevel="2">
-      <c r="F105" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="G105" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" outlineLevel="2">
-      <c r="F106" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="G106" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" outlineLevel="2">
-      <c r="F107" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="G107" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="H107" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" outlineLevel="2">
-      <c r="F108" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G108" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="H108" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" outlineLevel="2"/>
-    <row r="110" spans="1:8" outlineLevel="2">
-      <c r="A110" s="18"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" outlineLevel="3">
-      <c r="F111" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="G111" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" outlineLevel="3">
-      <c r="F112" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="G112" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" outlineLevel="3">
-      <c r="F113" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="G113" s="17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" outlineLevel="3">
-      <c r="F114" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="G114" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H114" s="17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" outlineLevel="2"/>
-    <row r="116" spans="1:8" outlineLevel="2">
-      <c r="A116" s="18"/>
-      <c r="B116" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
-    </row>
-    <row r="117" spans="1:8" outlineLevel="2">
-      <c r="F117" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="G117" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" outlineLevel="2">
-      <c r="F118" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="G118" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" outlineLevel="2">
-      <c r="F119" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="G119" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="H119" s="29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" outlineLevel="2">
-      <c r="F120" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G120" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="H120" s="29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" outlineLevel="1"/>
-    <row r="122" spans="1:8">
-      <c r="A122" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="B122" s="18"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="20"/>
-    </row>
-    <row r="123" spans="1:8" outlineLevel="1">
-      <c r="F123" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G123" s="17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" outlineLevel="1">
-      <c r="F124" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="G124" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="H124" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" outlineLevel="1">
-      <c r="F125" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="G125" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="H125" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B127" s="18"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="20"/>
-    </row>
-    <row r="128" spans="1:8" outlineLevel="1">
-      <c r="F128" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="G128" s="17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="129" spans="6:8" outlineLevel="1">
-      <c r="F129" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="G129" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="H129" s="17" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="130" spans="6:8" outlineLevel="1">
-      <c r="F130" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="G130" s="17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="131" spans="6:8" outlineLevel="1">
-      <c r="F131" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="G131" s="17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="132" spans="6:8" outlineLevel="1">
-      <c r="F132" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G132" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="H132" s="17" t="s">
-        <v>266</v>
+      <c r="B7" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="51">
+      <c r="A8" s="19"/>
+      <c r="B8" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="19">
+        <v>4</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="19">
+        <v>5</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="46"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="49"/>
+      <c r="B11" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+    </row>
+    <row r="12" spans="1:4" ht="38.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="49"/>
+      <c r="B13" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="19">
+        <v>6</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="19">
+        <v>7</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="46" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="19">
+        <v>8</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="46" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="63.75">
+      <c r="A17" s="19">
+        <v>9</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="19"/>
+      <c r="B18" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="46"/>
+    </row>
+    <row r="19" spans="1:4" ht="38.25">
+      <c r="A19" s="19">
+        <v>10</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="38.25">
+      <c r="A20" s="19">
+        <v>11</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="63.75">
+      <c r="A21" s="19"/>
+      <c r="B21" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="19">
+        <v>12</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" s="46"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="59"/>
+      <c r="B23" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+    </row>
+    <row r="24" spans="1:4" ht="38.25">
+      <c r="A24" s="55">
+        <v>13</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" s="66" t="s">
+        <v>282</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="51">
+      <c r="A25" s="75">
+        <v>14</v>
+      </c>
+      <c r="B25" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" s="78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="62">
+        <v>16</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="19">
+        <v>17</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="46" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" location="Features!B2" display="Login Page"/>
+    <hyperlink ref="B4" location="Features!B6" display="Default Page(after login)"/>
+    <hyperlink ref="B7" location="Features!B8" display="Settings Page"/>
+    <hyperlink ref="B9" location="Features!B8" display="Ranking Page"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="114.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" style="31" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
-      <c r="A1" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="21">
+    <row r="1" spans="1:11" ht="25.5">
+      <c r="A1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="79" t="s">
+        <v>355</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="63.75">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="25.5">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="63.75">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="80">
+        <v>42335</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="63.75">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="37"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="89.25">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="80">
+        <v>42335</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="25.5">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" ht="114.75">
-      <c r="A4" s="21">
-        <v>2</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="21"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="21">
+      <c r="C8" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="80">
+        <v>42340</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="25.5">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B9" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" s="36" customFormat="1" ht="25.5">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="72" t="s">
+        <v>290</v>
+      </c>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="1:11" s="36" customFormat="1" ht="38.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="71" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="80">
+        <v>42335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3">
+        <v>4</v>
+      </c>
+      <c r="B12" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="76.5">
-      <c r="A8" s="21">
+      <c r="C12" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="80">
+        <v>42335</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="21">
+      <c r="B13" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="80">
+        <v>42335</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3">
+        <v>4</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="89.25">
+      <c r="A15" s="24">
         <v>5</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="B15" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="80">
+        <v>42333</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="24">
+        <v>5</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="24">
+        <v>5</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="24">
+        <v>5</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="24">
+        <v>5</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="36.75" customHeight="1">
+      <c r="A20" s="24">
+        <v>6</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="25.5">
+      <c r="A21" s="24">
+        <v>6</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>315</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="24">
+        <v>6</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" s="74" t="s">
+        <v>317</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3">
+        <v>7</v>
+      </c>
+      <c r="B23" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="21">
+      <c r="C23" s="74" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B24" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="74"/>
+      <c r="D24" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="3">
+        <v>8</v>
+      </c>
+      <c r="B25" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="74" t="s">
+        <v>326</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="3">
+        <v>8</v>
+      </c>
+      <c r="B26" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="74"/>
+      <c r="D26" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="63.75">
+      <c r="A27" s="3">
+        <v>9</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="3">
+        <v>9</v>
+      </c>
+      <c r="B28" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="74"/>
+      <c r="D28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" ht="76.5">
+      <c r="A29" s="3">
+        <v>10</v>
+      </c>
+      <c r="B29" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" ht="38.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="21"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="21">
-        <v>8</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="17"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="21"/>
-      <c r="B15" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="17"/>
-    </row>
-    <row r="16" spans="1:4" ht="38.25">
-      <c r="A16" s="21">
-        <v>9</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="38.25">
-      <c r="A17" s="21">
+      <c r="C29" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="3">
         <v>10</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="63.75">
-      <c r="A18" s="21">
+      <c r="B30" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" ht="25.5">
+      <c r="A31" s="3">
+        <v>10</v>
+      </c>
+      <c r="B31" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" ht="76.5">
+      <c r="A32" s="3">
+        <v>10</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="3">
+        <v>10</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="42"/>
+      <c r="D33" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" ht="25.5">
+      <c r="A34" s="3">
+        <v>10</v>
+      </c>
+      <c r="B34" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" ht="25.5">
+      <c r="A35" s="3">
+        <v>10</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" ht="25.5">
+      <c r="A36" s="3">
+        <v>10</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="3">
+        <v>10</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" ht="63.75">
+      <c r="A38" s="3">
+        <v>10</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="3">
+        <v>10</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" ht="25.5">
+      <c r="A40" s="3">
+        <v>10</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" ht="102">
+      <c r="A41" s="3">
         <v>11</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="21">
-        <v>12</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="17"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="21">
-        <v>13</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="17"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="21">
-        <v>14</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="17"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="21">
-        <v>15</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="26"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="21">
-        <v>16</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>163</v>
-      </c>
+      <c r="B41" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" ht="25.5">
+      <c r="A42" s="3"/>
+      <c r="B42" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" ht="38.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="3"/>
+      <c r="B44" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" ht="38.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" ht="63.75">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J46" s="29"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" ht="51">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="29"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" ht="25.5">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" ht="38.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J51" s="29"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="I63" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -3461,10 +4634,1254 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:H132"/>
+  <sheetViews>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="2" width="4.140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="90.85546875" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="18">
+      <c r="A1" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" outlineLevel="1">
+      <c r="F3" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" outlineLevel="1">
+      <c r="F4" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" outlineLevel="1">
+      <c r="F5" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" outlineLevel="1">
+      <c r="F6" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" outlineLevel="1">
+      <c r="F7" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" outlineLevel="1">
+      <c r="F8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" outlineLevel="1">
+      <c r="F9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12" customHeight="1" outlineLevel="1">
+      <c r="F10" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12" customHeight="1" outlineLevel="1">
+      <c r="F11" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" outlineLevel="1">
+      <c r="F12" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" outlineLevel="1">
+      <c r="F13" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" outlineLevel="1">
+      <c r="F14" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" outlineLevel="1">
+      <c r="F15" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" outlineLevel="1">
+      <c r="F16" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" outlineLevel="1">
+      <c r="F17" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" outlineLevel="1">
+      <c r="F18" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" outlineLevel="1">
+      <c r="F19" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" outlineLevel="1">
+      <c r="F20" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" outlineLevel="1">
+      <c r="F21" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" outlineLevel="1">
+      <c r="B22" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" outlineLevel="1">
+      <c r="F23" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" outlineLevel="1">
+      <c r="F24" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="12" customHeight="1" outlineLevel="1">
+      <c r="F25" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="12" customHeight="1" outlineLevel="1">
+      <c r="F26" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" outlineLevel="1">
+      <c r="F27" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" outlineLevel="1">
+      <c r="F28" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" outlineLevel="1">
+      <c r="F29" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" outlineLevel="1">
+      <c r="F30" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" outlineLevel="1">
+      <c r="F31" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" outlineLevel="1">
+      <c r="F32" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" outlineLevel="1">
+      <c r="F33" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" outlineLevel="1">
+      <c r="F34" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" outlineLevel="1">
+      <c r="F35" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" outlineLevel="1">
+      <c r="F36" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" outlineLevel="1"/>
+    <row r="38" spans="1:8" outlineLevel="1">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" outlineLevel="2"/>
+    <row r="40" spans="1:8" outlineLevel="2">
+      <c r="F40" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" outlineLevel="2">
+      <c r="F41" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" outlineLevel="2">
+      <c r="F42" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" outlineLevel="2"/>
+    <row r="44" spans="1:8" customFormat="1" outlineLevel="1">
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+    </row>
+    <row r="45" spans="1:8" customFormat="1" outlineLevel="2">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" customFormat="1" outlineLevel="2">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" outlineLevel="2">
+      <c r="F47" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" outlineLevel="2"/>
+    <row r="49" spans="1:8" outlineLevel="1">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" spans="1:8" outlineLevel="2">
+      <c r="F50" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" outlineLevel="2">
+      <c r="F51" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" outlineLevel="2">
+      <c r="F52" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" outlineLevel="2">
+      <c r="F53" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" outlineLevel="2">
+      <c r="F54" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" outlineLevel="2"/>
+    <row r="56" spans="1:8" outlineLevel="1">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+    </row>
+    <row r="57" spans="1:8" outlineLevel="2">
+      <c r="F57" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" outlineLevel="2">
+      <c r="F58" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" outlineLevel="2">
+      <c r="F59" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" outlineLevel="2">
+      <c r="F60" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" outlineLevel="2">
+      <c r="F61" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" outlineLevel="2"/>
+    <row r="63" spans="1:8" outlineLevel="1">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" outlineLevel="2">
+      <c r="F64" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" outlineLevel="2">
+      <c r="F65" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" outlineLevel="2">
+      <c r="F66" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" outlineLevel="2">
+      <c r="F67" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" outlineLevel="2">
+      <c r="F68" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" outlineLevel="2">
+      <c r="F69" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" outlineLevel="2">
+      <c r="F70" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" outlineLevel="2"/>
+    <row r="72" spans="1:8" outlineLevel="2">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" outlineLevel="3">
+      <c r="F73" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" outlineLevel="3">
+      <c r="F74" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" outlineLevel="3">
+      <c r="F75" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" outlineLevel="3">
+      <c r="F76" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" outlineLevel="2"/>
+    <row r="78" spans="1:8" outlineLevel="2">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" outlineLevel="3">
+      <c r="F79" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" outlineLevel="3">
+      <c r="F80" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" outlineLevel="3">
+      <c r="F81" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" outlineLevel="3">
+      <c r="F82" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" outlineLevel="3">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+    </row>
+    <row r="84" spans="1:8" outlineLevel="5">
+      <c r="F84" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" outlineLevel="5">
+      <c r="F85" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="H85" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" outlineLevel="5">
+      <c r="F86" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" outlineLevel="5">
+      <c r="F87" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" outlineLevel="5"/>
+    <row r="89" spans="1:8" outlineLevel="1">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="18"/>
+    </row>
+    <row r="90" spans="1:8" outlineLevel="2">
+      <c r="F90" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" outlineLevel="2">
+      <c r="F91" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="H91" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" outlineLevel="2">
+      <c r="F92" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="G92" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H92" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" outlineLevel="2">
+      <c r="F93" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" outlineLevel="2"/>
+    <row r="95" spans="1:8" outlineLevel="1">
+      <c r="A95" s="16"/>
+      <c r="B95" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" outlineLevel="2">
+      <c r="F96" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" outlineLevel="2">
+      <c r="F97" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" outlineLevel="2">
+      <c r="F98" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" outlineLevel="2">
+      <c r="F99" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" outlineLevel="2">
+      <c r="F100" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="H100" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" outlineLevel="1"/>
+    <row r="102" spans="1:8">
+      <c r="A102" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+    </row>
+    <row r="103" spans="1:8" outlineLevel="1">
+      <c r="A103" s="16"/>
+      <c r="B103" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+    </row>
+    <row r="104" spans="1:8" outlineLevel="2">
+      <c r="F104" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" outlineLevel="2">
+      <c r="F105" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" outlineLevel="2">
+      <c r="F106" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" outlineLevel="2">
+      <c r="F107" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G107" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H107" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" outlineLevel="2">
+      <c r="F108" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G108" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H108" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" outlineLevel="2"/>
+    <row r="110" spans="1:8" outlineLevel="2">
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" outlineLevel="3">
+      <c r="F111" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G111" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" outlineLevel="3">
+      <c r="F112" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G112" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" outlineLevel="3">
+      <c r="F113" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G113" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" outlineLevel="3">
+      <c r="F114" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G114" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H114" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" outlineLevel="2"/>
+    <row r="116" spans="1:8" outlineLevel="2">
+      <c r="A116" s="16"/>
+      <c r="B116" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+    </row>
+    <row r="117" spans="1:8" outlineLevel="2">
+      <c r="F117" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="G117" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" outlineLevel="2">
+      <c r="F118" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" outlineLevel="2">
+      <c r="F119" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G119" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="H119" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" outlineLevel="2">
+      <c r="F120" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G120" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H120" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" outlineLevel="1"/>
+    <row r="122" spans="1:8">
+      <c r="A122" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B122" s="16"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="18"/>
+    </row>
+    <row r="123" spans="1:8" outlineLevel="1">
+      <c r="F123" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" outlineLevel="1">
+      <c r="F124" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="G124" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="H124" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" outlineLevel="1">
+      <c r="F125" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H125" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="18"/>
+    </row>
+    <row r="128" spans="1:8" outlineLevel="1">
+      <c r="F128" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="129" spans="6:8" outlineLevel="1">
+      <c r="F129" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="G129" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="H129" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="130" spans="6:8" outlineLevel="1">
+      <c r="F130" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="G130" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="131" spans="6:8" outlineLevel="1">
+      <c r="F131" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="G131" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="132" spans="6:8" outlineLevel="1">
+      <c r="F132" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="H132" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3476,7 +5893,7 @@
     <col min="5" max="5" width="17.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="31" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -3502,8 +5919,8 @@
       <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>271</v>
+      <c r="H1" s="27" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5">
@@ -3518,33 +5935,33 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="33" t="s">
-        <v>270</v>
+      <c r="F2" s="25" t="s">
+        <v>262</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="45">
+      <c r="H2" s="37">
         <v>42333</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.5">
-      <c r="A3" s="32">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="36">
+      <c r="C3" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="28">
         <v>42348</v>
       </c>
     </row>
@@ -3566,7 +5983,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="37"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:8" ht="25.5">
       <c r="A5" s="3"/>
@@ -3577,16 +5994,16 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="33" t="s">
-        <v>270</v>
+      <c r="F5" s="25" t="s">
+        <v>262</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="37">
         <v>42335</v>
       </c>
     </row>
@@ -3602,11 +6019,11 @@
         <v>19</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="33" t="s">
-        <v>270</v>
+      <c r="F6" s="25" t="s">
+        <v>262</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="45">
+      <c r="H6" s="37">
         <v>42335</v>
       </c>
     </row>
@@ -3620,45 +6037,45 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="33" t="s">
-        <v>270</v>
+      <c r="F7" s="25" t="s">
+        <v>262</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="45">
+      <c r="H7" s="37">
         <v>42335</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="44" customFormat="1" ht="25.5">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41" t="s">
+    <row r="8" spans="1:8" s="36" customFormat="1" ht="25.5">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
-    </row>
-    <row r="9" spans="1:8" s="44" customFormat="1" ht="25.5">
-      <c r="A9" s="40"/>
-      <c r="B9" s="41" t="s">
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="1:8" s="36" customFormat="1" ht="25.5">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" ht="25.5">
       <c r="A10" s="3"/>
@@ -3672,29 +6089,29 @@
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="37"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" ht="25.5">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8" ht="38.25">
       <c r="A12" s="3"/>
@@ -3702,7 +6119,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>80</v>
@@ -3710,7 +6127,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="37"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3"/>
@@ -3720,7 +6137,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="37"/>
+      <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3"/>
@@ -3738,9 +6155,9 @@
         <v>9</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="H14" s="37"/>
+        <v>266</v>
+      </c>
+      <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3"/>
@@ -3754,7 +6171,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="46"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3"/>
@@ -3769,10 +6186,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="45">
+      <c r="H16" s="37">
         <v>42339</v>
       </c>
     </row>
@@ -3789,10 +6206,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="45">
+      <c r="H17" s="37">
         <v>42339</v>
       </c>
     </row>
@@ -3809,10 +6226,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="45">
+      <c r="H18" s="37">
         <v>42339</v>
       </c>
     </row>
@@ -3824,7 +6241,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="37"/>
+      <c r="H19" s="29"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3"/>
@@ -3840,7 +6257,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="37"/>
+      <c r="H20" s="29"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3"/>
@@ -3856,7 +6273,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="37"/>
+      <c r="H21" s="29"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3"/>
@@ -3872,7 +6289,7 @@
       <c r="G22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="37"/>
+      <c r="H22" s="29"/>
     </row>
     <row r="23" spans="1:8" ht="25.5">
       <c r="A23" s="3"/>
@@ -3886,7 +6303,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="37"/>
+      <c r="H23" s="29"/>
     </row>
     <row r="24" spans="1:8" ht="38.25">
       <c r="A24" s="3"/>
@@ -3902,7 +6319,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="37"/>
+      <c r="H24" s="29"/>
     </row>
     <row r="25" spans="1:8" ht="25.5">
       <c r="A25" s="3"/>
@@ -3918,7 +6335,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="37"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3"/>
@@ -3932,7 +6349,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="37"/>
+      <c r="H26" s="29"/>
     </row>
     <row r="27" spans="1:8" ht="25.5">
       <c r="A27" s="3"/>
@@ -3950,7 +6367,7 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="37"/>
+      <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8" ht="25.5">
       <c r="A28" s="3"/>
@@ -3968,7 +6385,7 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="37"/>
+      <c r="H28" s="29"/>
     </row>
     <row r="29" spans="1:8" ht="25.5">
       <c r="A29" s="3"/>
@@ -3984,7 +6401,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="37"/>
+      <c r="H29" s="29"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1">
       <c r="A30" s="3"/>
@@ -3994,7 +6411,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="37"/>
+      <c r="H30" s="29"/>
     </row>
     <row r="31" spans="1:8" ht="63.75">
       <c r="A31" s="3"/>
@@ -4010,7 +6427,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="37"/>
+      <c r="H31" s="29"/>
     </row>
     <row r="32" spans="1:8" ht="25.5">
       <c r="A32" s="3"/>
@@ -4026,7 +6443,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="37"/>
+      <c r="H32" s="29"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3"/>
@@ -4042,7 +6459,7 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="37"/>
+      <c r="H33" s="29"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3"/>
@@ -4058,7 +6475,7 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="37"/>
+      <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3"/>
@@ -4072,7 +6489,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="37"/>
+      <c r="H35" s="29"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3"/>
@@ -4082,7 +6499,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="37"/>
+      <c r="H36" s="29"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3"/>
@@ -4100,7 +6517,7 @@
       <c r="G37" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H37" s="37"/>
+      <c r="H37" s="29"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3"/>
@@ -4118,7 +6535,7 @@
       <c r="G38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="37"/>
+      <c r="H38" s="29"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3"/>
@@ -4132,7 +6549,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="37"/>
+      <c r="H39" s="29"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="3"/>
@@ -4146,7 +6563,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="37"/>
+      <c r="H40" s="29"/>
     </row>
     <row r="41" spans="1:8" ht="25.5">
       <c r="A41" s="3"/>
@@ -4162,7 +6579,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="37"/>
+      <c r="H41" s="29"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3"/>
@@ -4180,7 +6597,7 @@
       <c r="G42" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H42" s="37"/>
+      <c r="H42" s="29"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="3"/>
@@ -4190,7 +6607,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="37"/>
+      <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="3"/>
@@ -4204,7 +6621,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="37"/>
+      <c r="H44" s="29"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="3"/>
@@ -4220,7 +6637,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="37"/>
+      <c r="H45" s="29"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="3"/>
@@ -4230,7 +6647,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="37"/>
+      <c r="H46" s="29"/>
     </row>
     <row r="47" spans="1:8" ht="25.5">
       <c r="A47" s="3"/>
@@ -4246,7 +6663,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="37"/>
+      <c r="H47" s="29"/>
     </row>
     <row r="48" spans="1:8" ht="25.5">
       <c r="A48" s="3"/>
@@ -4262,7 +6679,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="37"/>
+      <c r="H48" s="29"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="3"/>
@@ -4272,7 +6689,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="37"/>
+      <c r="H49" s="29"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="3"/>
@@ -4288,7 +6705,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="37"/>
+      <c r="H50" s="29"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="3"/>
@@ -4304,7 +6721,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="37"/>
+      <c r="H51" s="29"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="3"/>
@@ -4320,7 +6737,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="37"/>
+      <c r="H52" s="29"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="3"/>
@@ -4336,7 +6753,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="37"/>
+      <c r="H53" s="29"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="3"/>
@@ -4346,7 +6763,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="37"/>
+      <c r="H54" s="29"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="3"/>
@@ -4360,7 +6777,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="37"/>
+      <c r="H55" s="29"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="3"/>
@@ -4370,7 +6787,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="37"/>
+      <c r="H56" s="29"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="3"/>
@@ -4384,7 +6801,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="37"/>
+      <c r="H57" s="29"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="3"/>
@@ -4398,7 +6815,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="37"/>
+      <c r="H58" s="29"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="3"/>
@@ -4408,7 +6825,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="37"/>
+      <c r="H59" s="29"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="3"/>
@@ -4418,7 +6835,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="37"/>
+      <c r="H60" s="29"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="3"/>
@@ -4432,7 +6849,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="37"/>
+      <c r="H61" s="29"/>
     </row>
     <row r="62" spans="1:8" ht="25.5">
       <c r="A62" s="3"/>
@@ -4448,7 +6865,7 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="37"/>
+      <c r="H62" s="29"/>
     </row>
     <row r="63" spans="1:8" ht="38.25">
       <c r="A63" s="3"/>
@@ -4464,7 +6881,7 @@
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="37"/>
+      <c r="H63" s="29"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="3"/>
@@ -4474,7 +6891,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="37"/>
+      <c r="H64" s="29"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="3"/>
@@ -4488,7 +6905,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="37"/>
+      <c r="H65" s="29"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="3"/>
@@ -4500,7 +6917,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="37"/>
+      <c r="H66" s="29"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="3"/>
@@ -4512,7 +6929,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="37"/>
+      <c r="H67" s="29"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="3"/>
@@ -4524,7 +6941,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="37"/>
+      <c r="H68" s="29"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="3"/>
@@ -4536,7 +6953,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="37"/>
+      <c r="H69" s="29"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="3"/>
@@ -4546,7 +6963,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="37"/>
+      <c r="H70" s="29"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="3"/>
@@ -4556,7 +6973,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="37"/>
+      <c r="H71" s="29"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="3"/>
@@ -4566,7 +6983,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="37"/>
+      <c r="H72" s="29"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="3"/>
@@ -4576,7 +6993,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="37"/>
+      <c r="H73" s="29"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="3"/>
@@ -4586,7 +7003,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="37"/>
+      <c r="H74" s="29"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="3"/>
@@ -4596,7 +7013,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="37"/>
+      <c r="H75" s="29"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="8"/>
@@ -4606,7 +7023,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="10"/>
-      <c r="H76" s="38"/>
+      <c r="H76" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
